--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lgi3</t>
   </si>
   <si>
     <t>Adam23</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.475926292362642</v>
+        <v>0.6167776666666667</v>
       </c>
       <c r="H2">
-        <v>0.475926292362642</v>
+        <v>1.850333</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7836323164322263</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7836323164322262</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>19.9889956405852</v>
+        <v>0.269164</v>
       </c>
       <c r="N2">
-        <v>19.9889956405852</v>
+        <v>0.8074920000000001</v>
       </c>
       <c r="O2">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781685</v>
       </c>
       <c r="P2">
-        <v>0.8919668892236542</v>
+        <v>0.01089095165781686</v>
       </c>
       <c r="Q2">
-        <v>9.513288583276728</v>
+        <v>0.1660143438706667</v>
       </c>
       <c r="R2">
-        <v>9.513288583276728</v>
+        <v>1.494129094836</v>
       </c>
       <c r="S2">
-        <v>0.8919668892236542</v>
+        <v>0.008534501675766417</v>
       </c>
       <c r="T2">
-        <v>0.8919668892236542</v>
+        <v>0.008534501675766417</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.475926292362642</v>
+        <v>0.6167776666666667</v>
       </c>
       <c r="H3">
-        <v>0.475926292362642</v>
+        <v>1.850333</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7836323164322263</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7836323164322262</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.152554721020667</v>
+        <v>20.07911633333334</v>
       </c>
       <c r="N3">
-        <v>0.152554721020667</v>
+        <v>60.237349</v>
       </c>
       <c r="O3">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867432</v>
       </c>
       <c r="P3">
-        <v>0.006807433569543921</v>
+        <v>0.8124440315867433</v>
       </c>
       <c r="Q3">
-        <v>0.07260480275778325</v>
+        <v>12.38435052080189</v>
       </c>
       <c r="R3">
-        <v>0.07260480275778325</v>
+        <v>111.459154687217</v>
       </c>
       <c r="S3">
-        <v>0.006807433569543921</v>
+        <v>0.6366573984438564</v>
       </c>
       <c r="T3">
-        <v>0.006807433569543921</v>
+        <v>0.6366573984438564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,371 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.475926292362642</v>
+        <v>0.6167776666666667</v>
       </c>
       <c r="H4">
-        <v>0.475926292362642</v>
+        <v>1.850333</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.7836323164322263</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7836323164322262</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.26846942958069</v>
+        <v>0.174593</v>
       </c>
       <c r="N4">
-        <v>2.26846942958069</v>
+        <v>0.523779</v>
       </c>
       <c r="O4">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197522</v>
       </c>
       <c r="P4">
-        <v>0.1012256772068018</v>
+        <v>0.007064406543197523</v>
       </c>
       <c r="Q4">
-        <v>1.079624244958335</v>
+        <v>0.1076850631563333</v>
       </c>
       <c r="R4">
-        <v>1.079624244958335</v>
+        <v>0.969165568407</v>
       </c>
       <c r="S4">
-        <v>0.1012256772068018</v>
+        <v>0.005535897263664851</v>
       </c>
       <c r="T4">
-        <v>0.1012256772068018</v>
+        <v>0.005535897263664851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.6167776666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.850333</v>
+      </c>
+      <c r="I5">
+        <v>0.7836323164322263</v>
+      </c>
+      <c r="J5">
+        <v>0.7836323164322262</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="N5">
+        <v>12.574763</v>
+      </c>
+      <c r="O5">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="P5">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="Q5">
+        <v>2.585277660675444</v>
+      </c>
+      <c r="R5">
+        <v>23.267498946079</v>
+      </c>
+      <c r="S5">
+        <v>0.1329045190489386</v>
+      </c>
+      <c r="T5">
+        <v>0.1329045190489386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.1702976666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.510893</v>
+      </c>
+      <c r="I6">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="J6">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.269164</v>
+      </c>
+      <c r="N6">
+        <v>0.8074920000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.01089095165781685</v>
+      </c>
+      <c r="P6">
+        <v>0.01089095165781686</v>
+      </c>
+      <c r="Q6">
+        <v>0.04583800115066667</v>
+      </c>
+      <c r="R6">
+        <v>0.4125420103560001</v>
+      </c>
+      <c r="S6">
+        <v>0.002356449982050438</v>
+      </c>
+      <c r="T6">
+        <v>0.002356449982050438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1702976666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.510893</v>
+      </c>
+      <c r="I7">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="J7">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>20.07911633333334</v>
+      </c>
+      <c r="N7">
+        <v>60.237349</v>
+      </c>
+      <c r="O7">
+        <v>0.8124440315867432</v>
+      </c>
+      <c r="P7">
+        <v>0.8124440315867433</v>
+      </c>
+      <c r="Q7">
+        <v>3.419426660295223</v>
+      </c>
+      <c r="R7">
+        <v>30.774839942657</v>
+      </c>
+      <c r="S7">
+        <v>0.1757866331428868</v>
+      </c>
+      <c r="T7">
+        <v>0.1757866331428868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1702976666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.510893</v>
+      </c>
+      <c r="I8">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="J8">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.174593</v>
+      </c>
+      <c r="N8">
+        <v>0.523779</v>
+      </c>
+      <c r="O8">
+        <v>0.007064406543197522</v>
+      </c>
+      <c r="P8">
+        <v>0.007064406543197523</v>
+      </c>
+      <c r="Q8">
+        <v>0.02973278051633333</v>
+      </c>
+      <c r="R8">
+        <v>0.267595024647</v>
+      </c>
+      <c r="S8">
+        <v>0.001528509279532671</v>
+      </c>
+      <c r="T8">
+        <v>0.001528509279532672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1702976666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.510893</v>
+      </c>
+      <c r="I9">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="J9">
+        <v>0.2163676835677737</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.191587666666666</v>
+      </c>
+      <c r="N9">
+        <v>12.574763</v>
+      </c>
+      <c r="O9">
+        <v>0.1696006102122423</v>
+      </c>
+      <c r="P9">
+        <v>0.1696006102122424</v>
+      </c>
+      <c r="Q9">
+        <v>0.7138175992621111</v>
+      </c>
+      <c r="R9">
+        <v>6.424358393359</v>
+      </c>
+      <c r="S9">
+        <v>0.03669609116330378</v>
+      </c>
+      <c r="T9">
+        <v>0.03669609116330379</v>
       </c>
     </row>
   </sheetData>
